--- a/36 Data Modelling and Table Relationships/Data Modelling and Table Relationships Sample Input.xlsx
+++ b/36 Data Modelling and Table Relationships/Data Modelling and Table Relationships Sample Input.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/36 Data Modelling and Table Relationships/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECE2403-17F3-4B8B-A3F7-DB7039BDF1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{3ECE2403-17F3-4B8B-A3F7-DB7039BDF1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A015BE9-1F76-4B20-A992-0E3AB64BEBFE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transactions" sheetId="3" r:id="rId1"/>
-    <sheet name="Stores" sheetId="1" r:id="rId2"/>
-    <sheet name="Menu" sheetId="2" r:id="rId3"/>
+    <sheet name="Input" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -517,9 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700305B-4BF5-45E0-8CE9-4935E66AAF12}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17704,45 +17700,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655EF1E8-87F1-4CD8-9517-F435C0AE9420}">
-  <dimension ref="C1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>